--- a/docs/技术知识篇/芯片/C500 Doc release_20220208_9.7.xlsx
+++ b/docs/技术知识篇/芯片/C500 Doc release_20220208_9.7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\杜瑶瑶\Desktop\工作成果 8.22\文档需求、风险和问题\C500文档需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\materials\docs\技术知识篇\芯片\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D63CC4-C8C8-4B43-AD15-8EE032638920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01089026-BBA3-4614-9291-DE6AD0218D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C500 documents" sheetId="2" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Register file(原则上仅内部使用)</t>
   </si>
   <si>
-    <t>This documentation should be of interest to cluster admins and support personnel of enterprise GPU deployments. It includes monitoring and management tools and application programming interfaces (APIs), in-field diagnostics and health monitoring, and cluster setup and deployment.</t>
-  </si>
-  <si>
     <t>MetaX Profiler Developer Tools Documentation</t>
   </si>
   <si>
@@ -1377,250 +1374,6 @@
   </si>
   <si>
     <r>
-      <t>mcBLAS_API_Reference: CSRD-22001-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_V1.0
-mcFFT_API_Reference: CSRD-22002-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_V1.0
-mcBLAS_API_Reference: CSRD-22003-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_V1.0</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GPU Management and Deployment Documentation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-This documentation should be of interest to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cluster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> admins and support personnel of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enterprise GPU deployments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 
-It includes: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">monitoring and management tools
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>application programming interfaces (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>APIs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in-field diagnostics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>health monitoring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-cluster setup and deployment</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>MetaX HPC SDK: 
 The NVIDIA HPC SDK is a comprehensive suite of</t>
     </r>
@@ -2510,12 +2263,285 @@
     <t>对标英伟达A100：安培架构</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>mcBLAS_API_Reference: CSRD-22001-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_V1.0
+mcFFT_API_Reference: CSRD-22002-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_V1.0
+mcSPARSE_API_Reference: CSRD-22003-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_V1.0</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GPU Management and Deployment Documentation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This documentation should be of interest to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> admins and support personnel of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enterprise GPU deployments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+It includes: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- monitoring and management tools </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application programming interfaces (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APIs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- in-field diagnostics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>health monitoring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- cluster setup and deployment</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件资源管理：
+- 寒武纪硬件监测器工具。
+- 寒武纪设备接口是一套支持主机端应用程序获取寒武纪芯片硬件信息的软件接口。
+- 寒武纪拓扑检测工具是一款针对用户使用 MLU-Link 进行通信时的拓扑检测工具。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2656,6 +2682,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF70AD47"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF70AD47"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2903,7 +2946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3081,6 +3124,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3099,7 +3166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,29 +3178,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3712,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3740,140 +3786,140 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I1" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>213</v>
-      </c>
       <c r="K1" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="77" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>176</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M2" s="56"/>
       <c r="N2" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="149" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="55"/>
       <c r="M3" s="57"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="134.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52"/>
       <c r="B4" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="55"/>
@@ -3884,25 +3930,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="55"/>
@@ -3911,25 +3957,25 @@
     <row r="6" spans="1:15" ht="247.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52"/>
       <c r="B6" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="48"/>
@@ -3937,25 +3983,25 @@
     <row r="7" spans="1:15" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
       <c r="B7" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="45" t="s">
         <v>188</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>189</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -3965,36 +4011,36 @@
         <v>4</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="52"/>
       <c r="B9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="46"/>
@@ -4004,10 +4050,10 @@
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="J9" s="45" t="s">
         <v>200</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>201</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -4015,23 +4061,23 @@
     <row r="10" spans="1:15" ht="309.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="52"/>
       <c r="B10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="46"/>
       <c r="F10" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>202</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>203</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
@@ -4039,10 +4085,10 @@
     <row r="11" spans="1:15" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52"/>
       <c r="B11" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -4052,39 +4098,39 @@
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>203</v>
-      </c>
       <c r="K11" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="313" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="52"/>
       <c r="B12" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="38"/>
       <c r="F12" s="39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="L12" s="21"/>
     </row>
@@ -4093,10 +4139,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="38"/>
@@ -4106,10 +4152,10 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
@@ -4119,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>10</v>
@@ -4137,7 +4183,7 @@
     <row r="15" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52"/>
       <c r="B15" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>11</v>
@@ -4155,23 +4201,23 @@
     <row r="16" spans="1:15" ht="252.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="52"/>
       <c r="B16" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
-        <v>12</v>
+      <c r="F16" s="77" t="s">
+        <v>235</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
       <c r="I16" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -4179,10 +4225,10 @@
     <row r="17" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
       <c r="B17" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -4190,10 +4236,10 @@
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
       <c r="I17" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
@@ -4201,23 +4247,23 @@
     <row r="18" spans="1:12" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
       <c r="B18" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="38"/>
       <c r="F18" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
@@ -4259,44 +4305,44 @@
   <sheetData>
     <row r="2" spans="2:4" ht="42" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="42" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -4304,954 +4350,954 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="3" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="63" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="3" t="s">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="28" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
+      <c r="B42" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="60"/>
+      <c r="C46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="60"/>
+      <c r="C47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="60"/>
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="60"/>
+      <c r="C49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="60"/>
+      <c r="C50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="60"/>
+      <c r="C51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="60"/>
+      <c r="C52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="60"/>
+      <c r="C53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="60"/>
+      <c r="C54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="60"/>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="60"/>
+      <c r="C56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="60"/>
+      <c r="C57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="60"/>
+      <c r="C58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="61"/>
+      <c r="C59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="72"/>
-      <c r="C46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="72"/>
-      <c r="C47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="72"/>
-      <c r="C48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="72"/>
-      <c r="C49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="72"/>
-      <c r="C50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="72"/>
-      <c r="C51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="72"/>
-      <c r="C52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="72"/>
-      <c r="C53" s="3" t="s">
+      <c r="D60" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="60"/>
+      <c r="C61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="60"/>
+      <c r="C62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="60"/>
+      <c r="C63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="60"/>
+      <c r="C64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="60"/>
+      <c r="C65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="3" t="s">
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="60"/>
+      <c r="C66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="60"/>
+      <c r="C67" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="72"/>
-      <c r="C54" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="72"/>
-      <c r="C55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="72"/>
-      <c r="C56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="72"/>
-      <c r="C57" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="72"/>
-      <c r="C58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="3" t="s">
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="60"/>
+      <c r="C68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="60"/>
+      <c r="C69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="72"/>
-      <c r="C61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="72"/>
-      <c r="C62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="72"/>
-      <c r="C63" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="72"/>
-      <c r="C64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="72"/>
-      <c r="C65" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="72"/>
-      <c r="C66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="72"/>
-      <c r="C67" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="72"/>
-      <c r="C68" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="72"/>
-      <c r="C69" s="3" t="s">
+    </row>
+    <row r="70" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B70" s="61"/>
+      <c r="C70" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B70" s="73"/>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="3" t="s">
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="65" t="s">
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="71" t="s">
-        <v>36</v>
+      <c r="B86" s="59" t="s">
+        <v>35</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="60"/>
+      <c r="C87" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="72"/>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="61"/>
+      <c r="C88" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="73"/>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="65" t="s">
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="62"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="69" t="s">
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="69" t="s">
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="69" t="s">
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="69" t="s">
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="65" t="s">
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="62"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="62"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="59" t="s">
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="69"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="70"/>
+      <c r="C112" s="71"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="72"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="61"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="62"/>
-      <c r="C112" s="63"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="64"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="59" t="s">
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="69"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="70"/>
+      <c r="C114" s="71"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="72"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="61"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="62"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="63"/>
-      <c r="E114" s="64"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="59" t="s">
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="69"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="70"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="72"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="61"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="62"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="64"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="61"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="69"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="62"/>
-      <c r="C118" s="63"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="64"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="72"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="E120" s="11"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E121" s="11"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E122" s="11"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E123" s="11"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="70" t="s">
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="62"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127" s="62"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="65"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="65"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="61"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="69"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="62"/>
-      <c r="C132" s="63"/>
-      <c r="D132" s="63"/>
-      <c r="E132" s="64"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="72"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="12"/>
@@ -5320,18 +5366,18 @@
       <c r="E143" s="14"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="61"/>
+      <c r="B144" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="69"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145" s="62"/>
-      <c r="C145" s="63"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="64"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="72"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="12"/>
@@ -5382,18 +5428,18 @@
       <c r="E153" s="14"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="61"/>
+      <c r="B154" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="68"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="69"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="62"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="64"/>
+      <c r="B155" s="70"/>
+      <c r="C155" s="71"/>
+      <c r="D155" s="71"/>
+      <c r="E155" s="72"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="12"/>
@@ -5480,18 +5526,18 @@
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B170" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C170" s="60"/>
-      <c r="D170" s="60"/>
-      <c r="E170" s="61"/>
+      <c r="B170" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="69"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B171" s="62"/>
-      <c r="C171" s="63"/>
-      <c r="D171" s="63"/>
-      <c r="E171" s="64"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="71"/>
+      <c r="D171" s="71"/>
+      <c r="E171" s="72"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
@@ -5596,102 +5642,102 @@
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B189" s="66" t="s">
+      <c r="B189" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C189" s="75"/>
+      <c r="D189" s="75"/>
+      <c r="E189" s="76"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B190" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="C189" s="67"/>
-      <c r="D189" s="67"/>
-      <c r="E189" s="68"/>
-    </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B190" s="69" t="s">
+      <c r="C190" s="63"/>
+      <c r="D190" s="63"/>
+      <c r="E190" s="63"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B191" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C190" s="69"/>
-      <c r="D190" s="69"/>
-      <c r="E190" s="69"/>
-    </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B191" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C191" s="69"/>
-      <c r="D191" s="69"/>
-      <c r="E191" s="69"/>
+      <c r="C191" s="63"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="63"/>
     </row>
     <row r="192" spans="2:12" ht="27" x14ac:dyDescent="0.3">
       <c r="B192" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J192" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I192" s="5" t="s">
+      <c r="K192" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L192" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="J192" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K192" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L192" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="193" spans="2:12" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C193" s="15" t="s">
+      <c r="D193" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="E193" s="10">
         <v>0.7</v>
       </c>
       <c r="F193" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G193" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G193" s="10" t="s">
+      <c r="H193" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H193" s="10" t="s">
+      <c r="I193" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I193" s="10" t="s">
+      <c r="J193" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="J193" s="10" t="s">
+      <c r="K193" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K193" s="10" t="s">
+      <c r="L193" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="L193" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B194" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="11"/>
@@ -5706,7 +5752,7 @@
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B195" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="11"/>
@@ -5721,7 +5767,7 @@
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B196" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="11"/>
@@ -5736,7 +5782,7 @@
     </row>
     <row r="197" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B197" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="11"/>
@@ -5746,14 +5792,14 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -5767,53 +5813,73 @@
       <c r="L198" s="3"/>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B200" s="69" t="s">
+      <c r="B200" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C200" s="63"/>
+      <c r="D200" s="63"/>
+      <c r="E200" s="63"/>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B201" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C200" s="69"/>
-      <c r="D200" s="69"/>
-      <c r="E200" s="69"/>
-    </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B201" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="C201" s="65"/>
-      <c r="D201" s="65"/>
-      <c r="E201" s="65"/>
+      <c r="C201" s="62"/>
+      <c r="D201" s="62"/>
+      <c r="E201" s="62"/>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B202" s="65"/>
-      <c r="C202" s="65"/>
-      <c r="D202" s="65"/>
-      <c r="E202" s="65"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="62"/>
+      <c r="D202" s="62"/>
+      <c r="E202" s="62"/>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B203" s="65"/>
-      <c r="C203" s="65"/>
-      <c r="D203" s="65"/>
-      <c r="E203" s="65"/>
+      <c r="B203" s="62"/>
+      <c r="C203" s="62"/>
+      <c r="D203" s="62"/>
+      <c r="E203" s="62"/>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B204" s="65"/>
-      <c r="C204" s="65"/>
-      <c r="D204" s="65"/>
-      <c r="E204" s="65"/>
+      <c r="B204" s="62"/>
+      <c r="C204" s="62"/>
+      <c r="D204" s="62"/>
+      <c r="E204" s="62"/>
     </row>
     <row r="205" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B205" s="65"/>
-      <c r="C205" s="65"/>
-      <c r="D205" s="65"/>
-      <c r="E205" s="65"/>
+      <c r="B205" s="62"/>
+      <c r="C205" s="62"/>
+      <c r="D205" s="62"/>
+      <c r="E205" s="62"/>
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B206" s="65"/>
-      <c r="C206" s="65"/>
-      <c r="D206" s="65"/>
-      <c r="E206" s="65"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="62"/>
+      <c r="D206" s="62"/>
+      <c r="E206" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B131:E132"/>
+    <mergeCell ref="B144:E145"/>
+    <mergeCell ref="B154:E155"/>
+    <mergeCell ref="B170:E171"/>
+    <mergeCell ref="B201:E206"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B117:E118"/>
+    <mergeCell ref="B125:E130"/>
+    <mergeCell ref="B89:D91"/>
+    <mergeCell ref="B99:E110"/>
+    <mergeCell ref="B111:E112"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="B115:E116"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
     <mergeCell ref="B86:B88"/>
     <mergeCell ref="B71:D76"/>
     <mergeCell ref="B81:D83"/>
@@ -5828,26 +5894,6 @@
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B45:B59"/>
     <mergeCell ref="B60:B70"/>
-    <mergeCell ref="B117:E118"/>
-    <mergeCell ref="B125:E130"/>
-    <mergeCell ref="B89:D91"/>
-    <mergeCell ref="B99:E110"/>
-    <mergeCell ref="B111:E112"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="B115:E116"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B131:E132"/>
-    <mergeCell ref="B144:E145"/>
-    <mergeCell ref="B154:E155"/>
-    <mergeCell ref="B170:E171"/>
-    <mergeCell ref="B201:E206"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B200:E200"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
